--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F1B61-E8E8-4A33-9FCE-7368A2B1A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2CE81-23B8-4D1B-8346-DD4CDB52ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Criterios</t>
   </si>
@@ -152,9 +141,6 @@
     <t>Los campos son solo de Lectura</t>
   </si>
   <si>
-    <t>Accept (Redirect: Index)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -186,6 +172,12 @@
   </si>
   <si>
     <t>Views: Layouts, Bootstrap,  Redirection y Actions, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -733,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -772,37 +764,37 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -859,13 +851,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="31"/>
     </row>
@@ -883,13 +875,13 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="31"/>
     </row>
@@ -940,13 +932,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="31"/>
     </row>
@@ -967,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -979,10 +971,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="31"/>
     </row>
@@ -1021,13 +1013,13 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="31"/>
     </row>
@@ -1036,10 +1028,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -1072,15 +1064,15 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>6</v>
@@ -1094,10 +1086,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -1121,13 +1113,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C34" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9">
         <v>0.1</v>
@@ -1176,13 +1168,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1190,10 +1182,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C40" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -1202,15 +1194,15 @@
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C41" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -1236,10 +1228,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C44" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1253,13 +1245,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1278,16 +1270,16 @@
         <v>31</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
@@ -1313,10 +1305,10 @@
         <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,13 +1321,13 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -1352,13 +1344,13 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C55" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="31"/>
     </row>
@@ -1367,10 +1359,10 @@
         <v>33</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C56" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1378,16 +1370,16 @@
         <v>14</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C57" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -1395,10 +1387,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9">
         <v>0.1</v>
@@ -1418,7 +1410,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>6</v>
@@ -1443,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C63" s="9">
         <v>0.1</v>
@@ -1457,7 +1449,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>2.5000000000000009</v>
       </c>
       <c r="D64" s="3"/>
     </row>

--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F1B61-E8E8-4A33-9FCE-7368A2B1A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D152369-6215-4785-929E-23CF9FEE0479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>Criterios</t>
   </si>
@@ -152,9 +141,6 @@
     <t>Los campos son solo de Lectura</t>
   </si>
   <si>
-    <t>Accept (Redirect: Index)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -186,6 +172,60 @@
   </si>
   <si>
     <t>Views: Layouts, Bootstrap,  Redirection y Actions, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3 Warnings</t>
+  </si>
+  <si>
+    <t>Datos quedamos y sin uso de MVC</t>
+  </si>
+  <si>
+    <t>Login no tiene Admin ni logia asociada</t>
+  </si>
+  <si>
+    <t>No corresponde al diseño</t>
+  </si>
+  <si>
+    <t>No valida Ni usaio o clve invalida</t>
+  </si>
+  <si>
+    <t>Redirecciona solamente</t>
+  </si>
+  <si>
+    <t>No valida campos</t>
+  </si>
+  <si>
+    <t>No tiene Email para validar usuario</t>
+  </si>
+  <si>
+    <t>No puede Registrar</t>
+  </si>
+  <si>
+    <t>No sorresponde al Diseño</t>
+  </si>
+  <si>
+    <t>El carousel No es correcto</t>
+  </si>
+  <si>
+    <t>no hay boton de Details</t>
+  </si>
+  <si>
+    <t>No muestra Tooltip</t>
+  </si>
+  <si>
+    <t>No hay Edit</t>
+  </si>
+  <si>
+    <t>No hay Details</t>
+  </si>
+  <si>
+    <t>No hay Delete</t>
   </si>
 </sst>
 </file>
@@ -733,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -772,19 +812,22 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -796,13 +839,16 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
         <v>0.1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -811,10 +857,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9">
         <v>0.1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="31"/>
     </row>
@@ -859,13 +908,16 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="31"/>
     </row>
@@ -883,13 +935,16 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="31"/>
     </row>
@@ -898,10 +953,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="31"/>
     </row>
@@ -940,13 +998,16 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="31"/>
     </row>
@@ -955,10 +1016,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C19" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="31"/>
     </row>
@@ -967,10 +1031,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -979,10 +1046,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="31"/>
     </row>
@@ -1021,13 +1091,16 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="31"/>
     </row>
@@ -1036,10 +1109,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -1072,21 +1148,27 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1121,13 +1203,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C34" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1135,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C35" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="31"/>
     </row>
@@ -1147,10 +1229,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C36" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -1159,10 +1241,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1176,13 +1258,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1190,10 +1272,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C40" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -1202,21 +1284,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C41" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="31"/>
     </row>
@@ -1248,18 +1330,20 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,10 +1351,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1278,22 +1362,22 @@
         <v>31</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1301,10 +1385,10 @@
         <v>33</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="31"/>
     </row>
@@ -1313,10 +1397,10 @@
         <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1325,17 +1409,19 @@
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -1344,21 +1430,21 @@
         <v>37</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C54" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C55" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="31"/>
     </row>
@@ -1367,10 +1453,10 @@
         <v>33</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C56" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1378,30 +1464,32 @@
         <v>14</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C57" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1409,22 +1497,22 @@
         <v>37</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C60" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,10 +1520,10 @@
         <v>33</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C62" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1443,10 +1531,10 @@
         <v>14</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C63" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="31"/>
     </row>
@@ -1457,7 +1545,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -1471,7 +1559,7 @@
       <c r="A67" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B7 B18:B23 B39:B44 B46:B51 B11:B16">
+  <conditionalFormatting sqref="B3:B7 B18:B23 B39:B44 B11:B16 B46:B51">
     <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1520,7 +1608,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B25:B31 B34:B37 B53:B57 B59:B63 B18:B23 B39:B44 B46:B51 B11:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B25:B31 B34:B37 B46:B51 B53:B57 B18:B23 B39:B44 B11:B16 B59:B63" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7 B24 B32" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioCesarRoblesUrib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\Exam-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F1B61-E8E8-4A33-9FCE-7368A2B1A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B45E9-CD24-4225-B4C2-6EEAA3DFC02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -152,9 +141,6 @@
     <t>Los campos son solo de Lectura</t>
   </si>
   <si>
-    <t>Accept (Redirect: Index)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -186,6 +172,9 @@
   </si>
   <si>
     <t>Views: Layouts, Bootstrap,  Redirection y Actions, HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>Edit (Redirect: Edit)</t>
   </si>
 </sst>
 </file>
@@ -733,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -772,7 +761,7 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -784,7 +773,7 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -796,7 +785,7 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
@@ -859,7 +848,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -883,7 +872,7 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -940,7 +929,7 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
@@ -1021,7 +1010,7 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>6</v>
@@ -1080,7 +1069,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>6</v>
@@ -1121,7 +1110,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>6</v>
@@ -1176,7 +1165,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>6</v>
@@ -1210,7 +1199,7 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -1253,7 +1242,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>6</v>
@@ -1287,7 +1276,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
@@ -1329,7 +1318,7 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>6</v>
@@ -1352,7 +1341,7 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -1387,7 +1376,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -1395,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>6</v>
@@ -1418,7 +1407,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>6</v>

--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B45E9-CD24-4225-B4C2-6EEAA3DFC02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EE7F5-53F9-4F41-9564-C5351C1AAD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>Criterios</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Cumple</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -175,6 +172,42 @@
   </si>
   <si>
     <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tiene 3 Warnings</t>
+  </si>
+  <si>
+    <t>No estaba modelo de User</t>
+  </si>
+  <si>
+    <t>Incorecto uso de la Vista (No debe usar Authenticate)</t>
+  </si>
+  <si>
+    <t>Controlador de Friends sin logica</t>
+  </si>
+  <si>
+    <t>No hay  manejo de Excepciones</t>
+  </si>
+  <si>
+    <t>No coresponde al Diseño</t>
+  </si>
+  <si>
+    <t>No me permite Logearme al sistema</t>
+  </si>
+  <si>
+    <t>No corresponde al diseño</t>
+  </si>
+  <si>
+    <t>No redirecciona al login</t>
+  </si>
+  <si>
+    <t>No Funciona</t>
+  </si>
+  <si>
+    <t>No funciona</t>
   </si>
 </sst>
 </file>
@@ -383,7 +416,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="9"/>
@@ -722,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -744,15 +827,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -761,67 +844,82 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9">
         <v>0.1</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9">
         <v>0.1</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C6" s="9">
         <v>0.1</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9">
         <v>0.1</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -830,7 +928,7 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -839,7 +937,7 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -848,22 +946,25 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C11" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="9">
         <v>0.1</v>
@@ -872,10 +973,10 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="9">
         <v>0.1</v>
@@ -884,22 +985,25 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="9">
         <v>0.1</v>
@@ -908,10 +1012,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="9">
         <v>0.1</v>
@@ -920,7 +1024,7 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -929,22 +1033,25 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9">
         <v>0.1</v>
@@ -953,10 +1060,10 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="9">
         <v>0.1</v>
@@ -965,22 +1072,25 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9">
         <v>0.1</v>
@@ -989,10 +1099,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="9">
         <v>0.1</v>
@@ -1001,7 +1111,7 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -1010,34 +1120,34 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="9">
         <v>0.1</v>
@@ -1046,44 +1156,44 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C29" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C30" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="9">
         <v>0.1</v>
@@ -1092,7 +1202,7 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
@@ -1101,352 +1211,362 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C34" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C35" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C36" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C37" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C40" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C41" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C42" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C43" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C44" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C47" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C50" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C51" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C54" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C55" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C56" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C57" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C59" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C60" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C62" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C63" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -1460,35 +1580,51 @@
       <c r="A67" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B7 B18:B23 B39:B44 B46:B51 B11:B16">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
+  <conditionalFormatting sqref="B3:B7 B18:B23 B11:B16">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24 B32">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B31">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B37">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B44">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B51">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1509,7 +1645,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B25:B31 B34:B37 B53:B57 B59:B63 B18:B23 B39:B44 B46:B51 B11:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B25:B31 B11:B16 B46:B51 B53:B57 B18:B23 B34:B37 B39:B44 B59:B63" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7 B24 B32" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B45E9-CD24-4225-B4C2-6EEAA3DFC02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39D8DD-669E-4ED8-8E71-7EA36D3E26A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>Criterios</t>
   </si>
@@ -175,6 +175,75 @@
   </si>
   <si>
     <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3 Warnings</t>
+  </si>
+  <si>
+    <t>No hay Modelo de User</t>
+  </si>
+  <si>
+    <t>No hay Vista de Login</t>
+  </si>
+  <si>
+    <t>Controlador de Usario no carga Admin</t>
+  </si>
+  <si>
+    <t>no corresponde al dise;o</t>
+  </si>
+  <si>
+    <t>No corresponde al dise;o</t>
+  </si>
+  <si>
+    <t>Esta siendo case sensitive al useremail</t>
+  </si>
+  <si>
+    <t>No valida que el usuario ya existe</t>
+  </si>
+  <si>
+    <t>No es acorde al dise;o</t>
+  </si>
+  <si>
+    <t>No hay ToolTip</t>
+  </si>
+  <si>
+    <t>Se pierde en lapantalla de CRUD</t>
+  </si>
+  <si>
+    <t>Falta el ProgressBar</t>
+  </si>
+  <si>
+    <t>Me manda a la tabla de Index</t>
+  </si>
+  <si>
+    <t>Se desborda</t>
+  </si>
+  <si>
+    <t>No muestra la Imagen</t>
+  </si>
+  <si>
+    <t>No valida Sex para solo M o F</t>
+  </si>
+  <si>
+    <t>No hay Range</t>
+  </si>
+  <si>
+    <t>No corresponde con el dise;o</t>
+  </si>
+  <si>
+    <t>No valida el Sex</t>
+  </si>
+  <si>
+    <t>No hay dependientes</t>
+  </si>
+  <si>
+    <t>No muetra mensaje</t>
+  </si>
+  <si>
+    <t>No es acorde con el Dise;o</t>
   </si>
 </sst>
 </file>
@@ -722,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -764,10 +833,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="31"/>
     </row>
@@ -776,10 +848,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="31"/>
     </row>
@@ -788,10 +863,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -800,10 +878,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="31"/>
     </row>
@@ -851,10 +932,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="31"/>
     </row>
@@ -887,10 +971,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="31"/>
     </row>
@@ -932,10 +1019,13 @@
         <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="31"/>
     </row>
@@ -956,10 +1046,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -971,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="31"/>
     </row>
@@ -1013,10 +1106,13 @@
         <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E25" s="31"/>
     </row>
@@ -1025,10 +1121,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -1037,10 +1136,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C27" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="31"/>
     </row>
@@ -1061,10 +1163,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,10 +1177,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1113,10 +1221,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C34" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1136,10 +1247,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C36" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -1148,10 +1262,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1168,10 +1285,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1179,10 +1299,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C40" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -1191,10 +1314,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C41" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1245,10 +1371,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1256,10 +1385,13 @@
         <v>32</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1267,10 +1399,13 @@
         <v>31</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C48" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="31"/>
     </row>
@@ -1279,10 +1414,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1321,10 +1459,13 @@
         <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C53" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -1336,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1387,10 +1528,13 @@
         <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1410,10 +1554,10 @@
         <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,7 +1590,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>2.2000000000000006</v>
       </c>
       <c r="D64" s="3"/>
     </row>

--- a/Exams/Exam-01/Exam-01-2/CheckList.xlsx
+++ b/Exams/Exam-01/Exam-01-2/CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\Exam-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\Exam-01-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B45E9-CD24-4225-B4C2-6EEAA3DFC02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF12EA-BB76-46C4-8DAA-A3C2352EFC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Criterios</t>
   </si>
@@ -175,6 +175,39 @@
   </si>
   <si>
     <t>Edit (Redirect: Edit)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hay CSS dentro de paginas</t>
+  </si>
+  <si>
+    <t>No es exacto al Dise;o</t>
+  </si>
+  <si>
+    <t>El usuario esta case sensitive</t>
+  </si>
+  <si>
+    <t>Los campos deben quedar uno bajo el otro</t>
+  </si>
+  <si>
+    <t>Deja insertar el mismo usuario varias veces</t>
+  </si>
+  <si>
+    <t>No muestra una sola card sino varias hacia abajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muesra el texto Profile en lugar del UserName o </t>
+  </si>
+  <si>
+    <t>Se muestran datos adicionales</t>
+  </si>
+  <si>
+    <t>Se desborda</t>
+  </si>
+  <si>
+    <t>Genera Error al cargar relations</t>
   </si>
 </sst>
 </file>
@@ -722,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -788,10 +821,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="31"/>
     </row>
@@ -851,10 +887,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="31"/>
     </row>
@@ -887,10 +926,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="31"/>
     </row>
@@ -956,10 +998,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -992,10 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="31"/>
     </row>
@@ -1025,10 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -1061,10 +1112,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,10 +1134,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -1113,10 +1167,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C34" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1148,10 +1205,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1279,10 +1339,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1302,10 +1365,13 @@
         <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,10 +1410,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C55" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="31"/>
     </row>
@@ -1367,10 +1433,10 @@
         <v>14</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C57" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="31"/>
     </row>
@@ -1410,10 +1476,10 @@
         <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C61" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,10 +1498,10 @@
         <v>14</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C63" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="31"/>
     </row>
@@ -1446,7 +1512,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="7">
         <f>SUM(C2:C63)</f>
-        <v>4.9999999999999982</v>
+        <v>3.4000000000000017</v>
       </c>
       <c r="D64" s="3"/>
     </row>
